--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll3-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll3-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dll3</t>
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H2">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I2">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J2">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N2">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q2">
-        <v>1.298167351307667</v>
+        <v>2.410993871015556</v>
       </c>
       <c r="R2">
-        <v>11.683506161769</v>
+        <v>21.69894483914</v>
       </c>
       <c r="S2">
-        <v>0.007195470727038168</v>
+        <v>0.007649469755247989</v>
       </c>
       <c r="T2">
-        <v>0.007195470727038167</v>
+        <v>0.00764946975524799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H3">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I3">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J3">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q3">
-        <v>13.975935028307</v>
+        <v>24.65859908172967</v>
       </c>
       <c r="R3">
-        <v>125.783415254763</v>
+        <v>221.927391735567</v>
       </c>
       <c r="S3">
-        <v>0.07746569136704222</v>
+        <v>0.07823545723201049</v>
       </c>
       <c r="T3">
-        <v>0.07746569136704219</v>
+        <v>0.07823545723201049</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H4">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I4">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J4">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N4">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O4">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P4">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q4">
-        <v>20.635153678636</v>
+        <v>62.69967803245611</v>
       </c>
       <c r="R4">
-        <v>185.716383107724</v>
+        <v>564.2971022921049</v>
       </c>
       <c r="S4">
-        <v>0.1143763507016204</v>
+        <v>0.1989301161396296</v>
       </c>
       <c r="T4">
-        <v>0.1143763507016203</v>
+        <v>0.1989301161396296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H5">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I5">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J5">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N5">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O5">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P5">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q5">
-        <v>7.314639890350334</v>
+        <v>16.39234817192122</v>
       </c>
       <c r="R5">
-        <v>65.831759013153</v>
+        <v>147.531133547291</v>
       </c>
       <c r="S5">
-        <v>0.04054352249486485</v>
+        <v>0.05200874754019522</v>
       </c>
       <c r="T5">
-        <v>0.04054352249486484</v>
+        <v>0.05200874754019523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H6">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I6">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J6">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N6">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q6">
-        <v>30.58777133166</v>
+        <v>44.70225755575366</v>
       </c>
       <c r="R6">
-        <v>275.28994198494</v>
+        <v>402.320318001783</v>
       </c>
       <c r="S6">
-        <v>0.1695416334424009</v>
+        <v>0.1418288828001078</v>
       </c>
       <c r="T6">
-        <v>0.1695416334424008</v>
+        <v>0.1418288828001078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.000448</v>
       </c>
       <c r="I7">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J7">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N7">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q7">
-        <v>1.413350075072</v>
+        <v>1.48774206848</v>
       </c>
       <c r="R7">
-        <v>12.720150675648</v>
+        <v>13.38967861632</v>
       </c>
       <c r="S7">
-        <v>0.007833904528559926</v>
+        <v>0.004720226829798696</v>
       </c>
       <c r="T7">
-        <v>0.007833904528559924</v>
+        <v>0.004720226829798697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.000448</v>
       </c>
       <c r="I8">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J8">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q8">
         <v>15.215980282944</v>
@@ -948,10 +948,10 @@
         <v>136.943822546496</v>
       </c>
       <c r="S8">
-        <v>0.08433900344114047</v>
+        <v>0.0482764317114595</v>
       </c>
       <c r="T8">
-        <v>0.08433900344114044</v>
+        <v>0.0482764317114595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.000448</v>
       </c>
       <c r="I9">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J9">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N9">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O9">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P9">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q9">
-        <v>22.466052602112</v>
+        <v>38.68983235935999</v>
       </c>
       <c r="R9">
-        <v>202.194473419008</v>
+        <v>348.2084912342399</v>
       </c>
       <c r="S9">
-        <v>0.1245246413628873</v>
+        <v>0.1227529883117773</v>
       </c>
       <c r="T9">
-        <v>0.1245246413628873</v>
+        <v>0.1227529883117773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>2.000448</v>
       </c>
       <c r="I10">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J10">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N10">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O10">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P10">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q10">
-        <v>7.963647235264</v>
+        <v>10.115158843712</v>
       </c>
       <c r="R10">
-        <v>71.67282511737599</v>
+        <v>91.036429593408</v>
       </c>
       <c r="S10">
-        <v>0.04414083477301987</v>
+        <v>0.03209282386599851</v>
       </c>
       <c r="T10">
-        <v>0.04414083477301986</v>
+        <v>0.03209282386599852</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>2.000448</v>
       </c>
       <c r="I11">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J11">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N11">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q11">
-        <v>33.30173791872</v>
+        <v>27.584238152256</v>
       </c>
       <c r="R11">
-        <v>299.71564126848</v>
+        <v>248.258143370304</v>
       </c>
       <c r="S11">
-        <v>0.1845845838845598</v>
+        <v>0.08751776518550865</v>
       </c>
       <c r="T11">
-        <v>0.1845845838845597</v>
+        <v>0.08751776518550866</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H12">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I12">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J12">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N12">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q12">
-        <v>0.3017745112922222</v>
+        <v>0.4071655403577779</v>
       </c>
       <c r="R12">
-        <v>2.71597060163</v>
+        <v>3.66448986322</v>
       </c>
       <c r="S12">
-        <v>0.001672673141858124</v>
+        <v>0.001291832602226441</v>
       </c>
       <c r="T12">
-        <v>0.001672673141858124</v>
+        <v>0.001291832602226441</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H13">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I13">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J13">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q13">
-        <v>3.248873081556667</v>
+        <v>4.164312460632334</v>
       </c>
       <c r="R13">
-        <v>29.23985773401</v>
+        <v>37.478812145691</v>
       </c>
       <c r="S13">
-        <v>0.01800782551699136</v>
+        <v>0.0132123032754088</v>
       </c>
       <c r="T13">
-        <v>0.01800782551699135</v>
+        <v>0.0132123032754088</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H14">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I14">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J14">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N14">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O14">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P14">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q14">
-        <v>4.796888021053333</v>
+        <v>10.58864088924055</v>
       </c>
       <c r="R14">
-        <v>43.17199218947999</v>
+        <v>95.297768003165</v>
       </c>
       <c r="S14">
-        <v>0.0265881492872247</v>
+        <v>0.03359506185609262</v>
       </c>
       <c r="T14">
-        <v>0.02658814928722469</v>
+        <v>0.03359506185609263</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H15">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I15">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J15">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N15">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O15">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P15">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q15">
-        <v>1.700375437701111</v>
+        <v>2.768318651238111</v>
       </c>
       <c r="R15">
-        <v>15.30337893931</v>
+        <v>24.914867861143</v>
       </c>
       <c r="S15">
-        <v>0.009424826217227331</v>
+        <v>0.00878317031416386</v>
       </c>
       <c r="T15">
-        <v>0.009424826217227327</v>
+        <v>0.00878317031416386</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H16">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I16">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J16">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N16">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q16">
-        <v>7.1104929082</v>
+        <v>7.549259693984332</v>
       </c>
       <c r="R16">
-        <v>63.9944361738</v>
+        <v>67.943337245859</v>
       </c>
       <c r="S16">
-        <v>0.0394119783741502</v>
+        <v>0.02395187909761105</v>
       </c>
       <c r="T16">
-        <v>0.03941197837415019</v>
+        <v>0.02395187909761106</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H17">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I17">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J17">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N17">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q17">
-        <v>0.1597596933414444</v>
+        <v>0.2359082557088889</v>
       </c>
       <c r="R17">
-        <v>1.437837240073</v>
+        <v>2.12317430138</v>
       </c>
       <c r="S17">
-        <v>0.000885514641576065</v>
+        <v>0.0007484768371884473</v>
       </c>
       <c r="T17">
-        <v>0.0008855146415760649</v>
+        <v>0.0007484768371884473</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H18">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I18">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J18">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>68.456577</v>
       </c>
       <c r="O18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q18">
-        <v>1.719956284552333</v>
+        <v>2.412767268937667</v>
       </c>
       <c r="R18">
-        <v>15.479606560971</v>
+        <v>21.714905420439</v>
       </c>
       <c r="S18">
-        <v>0.009533358765197099</v>
+        <v>0.007655096295378303</v>
       </c>
       <c r="T18">
-        <v>0.009533358765197095</v>
+        <v>0.007655096295378301</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H19">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I19">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J19">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N19">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O19">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P19">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q19">
-        <v>2.539476763478666</v>
+        <v>6.134968593642777</v>
       </c>
       <c r="R19">
-        <v>22.855290871308</v>
+        <v>55.21471734278499</v>
       </c>
       <c r="S19">
-        <v>0.01407578976254328</v>
+        <v>0.01946469349036513</v>
       </c>
       <c r="T19">
-        <v>0.01407578976254327</v>
+        <v>0.01946469349036513</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H20">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I20">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J20">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N20">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O20">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P20">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q20">
-        <v>0.9001802615112222</v>
+        <v>1.603940313038556</v>
       </c>
       <c r="R20">
-        <v>8.101622353601</v>
+        <v>14.435462817347</v>
       </c>
       <c r="S20">
-        <v>0.004989511340149593</v>
+        <v>0.005088894277712687</v>
       </c>
       <c r="T20">
-        <v>0.004989511340149591</v>
+        <v>0.005088894277712687</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H21">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I21">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J21">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N21">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q21">
-        <v>3.76430123822</v>
+        <v>4.373976944945666</v>
       </c>
       <c r="R21">
-        <v>33.87871114398001</v>
+        <v>39.365792504511</v>
       </c>
       <c r="S21">
-        <v>0.02086473622994865</v>
+        <v>0.01387751530717101</v>
       </c>
       <c r="T21">
-        <v>0.02086473622994864</v>
+        <v>0.01387751530717101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J22">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.231113333333334</v>
+      </c>
+      <c r="N22">
+        <v>6.69334</v>
+      </c>
+      <c r="O22">
+        <v>0.01598125358798882</v>
+      </c>
+      <c r="P22">
+        <v>0.01598125358798882</v>
+      </c>
+      <c r="Q22">
+        <v>0.4952327895555556</v>
+      </c>
+      <c r="R22">
+        <v>4.457095106</v>
+      </c>
+      <c r="S22">
+        <v>0.001571247563527246</v>
+      </c>
+      <c r="T22">
+        <v>0.001571247563527246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J23">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>22.818859</v>
+      </c>
+      <c r="N23">
+        <v>68.456577</v>
+      </c>
+      <c r="O23">
+        <v>0.1634493267640196</v>
+      </c>
+      <c r="P23">
+        <v>0.1634493267640195</v>
+      </c>
+      <c r="Q23">
+        <v>5.065026069366666</v>
+      </c>
+      <c r="R23">
+        <v>45.58523462429999</v>
+      </c>
+      <c r="S23">
+        <v>0.01607003824976249</v>
+      </c>
+      <c r="T23">
+        <v>0.01607003824976249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J24">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>58.02175166666666</v>
+      </c>
+      <c r="N24">
+        <v>174.065255</v>
+      </c>
+      <c r="O24">
+        <v>0.4156043142904646</v>
+      </c>
+      <c r="P24">
+        <v>0.4156043142904646</v>
+      </c>
+      <c r="Q24">
+        <v>12.87889481161111</v>
+      </c>
+      <c r="R24">
+        <v>115.9100533045</v>
+      </c>
+      <c r="S24">
+        <v>0.04086145449259991</v>
+      </c>
+      <c r="T24">
+        <v>0.04086145449259991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J25">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.16934033333333</v>
+      </c>
+      <c r="N25">
+        <v>45.508021</v>
+      </c>
+      <c r="O25">
+        <v>0.1086565487318021</v>
+      </c>
+      <c r="P25">
+        <v>0.1086565487318021</v>
+      </c>
+      <c r="Q25">
+        <v>3.367087909322222</v>
+      </c>
+      <c r="R25">
+        <v>30.3037911839</v>
+      </c>
+      <c r="S25">
+        <v>0.01068291273373185</v>
+      </c>
+      <c r="T25">
+        <v>0.01068291273373185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J26">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>41.36709099999999</v>
+      </c>
+      <c r="N26">
+        <v>124.101273</v>
+      </c>
+      <c r="O26">
+        <v>0.2963085566257249</v>
+      </c>
+      <c r="P26">
+        <v>0.2963085566257249</v>
+      </c>
+      <c r="Q26">
+        <v>9.182115298966664</v>
+      </c>
+      <c r="R26">
+        <v>82.63903769069999</v>
+      </c>
+      <c r="S26">
+        <v>0.02913251423532639</v>
+      </c>
+      <c r="T26">
+        <v>0.02913251423532639</v>
       </c>
     </row>
   </sheetData>
